--- a/Experiments/Inner Product/Inner Product Dimension/combined.xlsx
+++ b/Experiments/Inner Product/Inner Product Dimension/combined.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Inner Product Dimension\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Distributed Monitoring Thesis\Experiments\Inner Product\Inner Product Dimension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A7873C-B047-465E-BAB9-B93911636954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F5F9B-D9A6-41E0-A33F-A1B49704A7E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="1725" windowWidth="13710" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="combined" sheetId="1" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -345,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2704,15 +2709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2742,465 +2747,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="combined"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Dist L2</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>FGM</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>Naive</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>Oracle</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>Oracle Vector</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v>Value</v>
-          </cell>
-          <cell r="H23" t="str">
-            <v>Vector</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>4</v>
-          </cell>
-          <cell r="B24">
-            <v>0.85764350833951852</v>
-          </cell>
-          <cell r="C24">
-            <v>1.1470767921912417</v>
-          </cell>
-          <cell r="D24">
-            <v>53.571428571428569</v>
-          </cell>
-          <cell r="E24">
-            <v>1</v>
-          </cell>
-          <cell r="F24">
-            <v>5.6071428571428568</v>
-          </cell>
-          <cell r="G24">
-            <v>1.1432702676208215</v>
-          </cell>
-          <cell r="H24">
-            <v>6.3571428571428568</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>16</v>
-          </cell>
-          <cell r="B25">
-            <v>1.2862587001274386</v>
-          </cell>
-          <cell r="C25">
-            <v>2.7193112632515017</v>
-          </cell>
-          <cell r="D25">
-            <v>53.571428571428569</v>
-          </cell>
-          <cell r="E25">
-            <v>1</v>
-          </cell>
-          <cell r="F25">
-            <v>4.6607142857142856</v>
-          </cell>
-          <cell r="G25">
-            <v>2.7150056191969973</v>
-          </cell>
-          <cell r="H25">
-            <v>9.1964285714285712</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>36</v>
-          </cell>
-          <cell r="B26">
-            <v>1.1433558490219602</v>
-          </cell>
-          <cell r="C26">
-            <v>4.1466182509340044</v>
-          </cell>
-          <cell r="D26">
-            <v>53.571428571428569</v>
-          </cell>
-          <cell r="E26">
-            <v>1</v>
-          </cell>
-          <cell r="F26">
-            <v>4.4444444444444446</v>
-          </cell>
-          <cell r="G26">
-            <v>4.143741743339822</v>
-          </cell>
-          <cell r="H26">
-            <v>9.8928571428571423</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>64</v>
-          </cell>
-          <cell r="B27">
-            <v>1.7149383332516419</v>
-          </cell>
-          <cell r="C27">
-            <v>5.2894400124462591</v>
-          </cell>
-          <cell r="D27">
-            <v>53.571428571428569</v>
-          </cell>
-          <cell r="E27">
-            <v>1</v>
-          </cell>
-          <cell r="F27">
-            <v>4.1205357142857144</v>
-          </cell>
-          <cell r="G27">
-            <v>5.2866733566036945</v>
-          </cell>
-          <cell r="H27">
-            <v>10.214285714285714</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>81</v>
-          </cell>
-          <cell r="B28">
-            <v>1.7149672534438734</v>
-          </cell>
-          <cell r="C28">
-            <v>5.5752021925436299</v>
-          </cell>
-          <cell r="D28">
-            <v>53.571428571428569</v>
-          </cell>
-          <cell r="E28">
-            <v>1</v>
-          </cell>
-          <cell r="F28">
-            <v>4.1216931216931219</v>
-          </cell>
-          <cell r="G28">
-            <v>5.572387645019413</v>
-          </cell>
-          <cell r="H28">
-            <v>10.093474426807759</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>100</v>
-          </cell>
-          <cell r="B29">
-            <v>2.0006598092623973</v>
-          </cell>
-          <cell r="C29">
-            <v>6.4323730516616022</v>
-          </cell>
-          <cell r="D29">
-            <v>53.571428571428569</v>
-          </cell>
-          <cell r="E29">
-            <v>1</v>
-          </cell>
-          <cell r="F29">
-            <v>4.1728571428571426</v>
-          </cell>
-          <cell r="G29">
-            <v>6.4295847746019295</v>
-          </cell>
-          <cell r="H29">
-            <v>9.7385714285714293</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>121</v>
-          </cell>
-          <cell r="B30">
-            <v>1.7149697803778063</v>
-          </cell>
-          <cell r="C30">
-            <v>6.1471358110479946</v>
-          </cell>
-          <cell r="D30">
-            <v>53.571428571428569</v>
-          </cell>
-          <cell r="E30">
-            <v>1</v>
-          </cell>
-          <cell r="F30">
-            <v>4.1924439197166468</v>
-          </cell>
-          <cell r="G30">
-            <v>6.1438793647913075</v>
-          </cell>
-          <cell r="H30">
-            <v>9.9622195985832356</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>144</v>
-          </cell>
-          <cell r="B31">
-            <v>2.0006623805944952</v>
-          </cell>
-          <cell r="C31">
-            <v>7.8614158732881778</v>
-          </cell>
-          <cell r="D31">
-            <v>-50.851673427597355</v>
-          </cell>
-          <cell r="E31">
-            <v>1</v>
-          </cell>
-          <cell r="F31">
-            <v>3.8938492063492065</v>
-          </cell>
-          <cell r="G31">
-            <v>7.8582647028847159</v>
-          </cell>
-          <cell r="H31">
-            <v>10.051587301587302</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>169</v>
-          </cell>
-          <cell r="B32">
-            <v>2.0006874087808839</v>
-          </cell>
-          <cell r="C32">
-            <v>7.4324776970218966</v>
-          </cell>
-          <cell r="D32">
-            <v>-35.404468989871624</v>
-          </cell>
-          <cell r="E32">
-            <v>1</v>
-          </cell>
-          <cell r="F32">
-            <v>4.0532544378698221</v>
-          </cell>
-          <cell r="G32">
-            <v>7.4296720449812526</v>
-          </cell>
-          <cell r="H32">
-            <v>10.060862214708369</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>196</v>
-          </cell>
-          <cell r="B33">
-            <v>2.0006975320832607</v>
-          </cell>
-          <cell r="C33">
-            <v>7.7186276505504665</v>
-          </cell>
-          <cell r="D33">
-            <v>-23.147585142141498</v>
-          </cell>
-          <cell r="E33">
-            <v>1</v>
-          </cell>
-          <cell r="F33">
-            <v>3.8330903790087465</v>
-          </cell>
-          <cell r="G33">
-            <v>7.7153961925072805</v>
-          </cell>
-          <cell r="H33">
-            <v>10.096209912536443</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>225</v>
-          </cell>
-          <cell r="B34">
-            <v>2.1436097768192659</v>
-          </cell>
-          <cell r="C34">
-            <v>8.2898551962692739</v>
-          </cell>
-          <cell r="D34">
-            <v>-13.259356707948022</v>
-          </cell>
-          <cell r="E34">
-            <v>1</v>
-          </cell>
-          <cell r="F34">
-            <v>3.8057142857142856</v>
-          </cell>
-          <cell r="G34">
-            <v>8.2868935974219777</v>
-          </cell>
-          <cell r="H34">
-            <v>10.246984126984128</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>256</v>
-          </cell>
-          <cell r="B35">
-            <v>2.1436270745952779</v>
-          </cell>
-          <cell r="C35">
-            <v>8.5755188594299234</v>
-          </cell>
-          <cell r="D35">
-            <v>-5.1665663030235134</v>
-          </cell>
-          <cell r="E35">
-            <v>1</v>
-          </cell>
-          <cell r="F35">
-            <v>3.9453125</v>
-          </cell>
-          <cell r="G35">
-            <v>8.5726571963795575</v>
-          </cell>
-          <cell r="H35">
-            <v>10.234933035714286</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>289</v>
-          </cell>
-          <cell r="B36">
-            <v>2.4293886286530504</v>
-          </cell>
-          <cell r="C36">
-            <v>9.1472907413194502</v>
-          </cell>
-          <cell r="D36">
-            <v>1.5405403781422959</v>
-          </cell>
-          <cell r="E36">
-            <v>1</v>
-          </cell>
-          <cell r="F36">
-            <v>3.6875926841324764</v>
-          </cell>
-          <cell r="G36">
-            <v>9.1441650118820306</v>
-          </cell>
-          <cell r="H36">
-            <v>9.9604547701433521</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>324</v>
-          </cell>
-          <cell r="B37">
-            <v>2.4293669249841847</v>
-          </cell>
-          <cell r="C37">
-            <v>9.2899459077999573</v>
-          </cell>
-          <cell r="D37">
-            <v>7.1611610163059369</v>
-          </cell>
-          <cell r="E37">
-            <v>1</v>
-          </cell>
-          <cell r="F37">
-            <v>3.9369488536155202</v>
-          </cell>
-          <cell r="G37">
-            <v>9.2870563576866889</v>
-          </cell>
-          <cell r="H37">
-            <v>10.358024691358025</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>361</v>
-          </cell>
-          <cell r="B38">
-            <v>2.5722040216810296</v>
-          </cell>
-          <cell r="C38">
-            <v>10.147265458933141</v>
-          </cell>
-          <cell r="D38">
-            <v>11.917892039961165</v>
-          </cell>
-          <cell r="E38">
-            <v>1</v>
-          </cell>
-          <cell r="F38">
-            <v>3.7748318163830628</v>
-          </cell>
-          <cell r="G38">
-            <v>10.144242582035398</v>
-          </cell>
-          <cell r="H38">
-            <v>10.376335575781559</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>400</v>
-          </cell>
-          <cell r="B39">
-            <v>2.5722276352458442</v>
-          </cell>
-          <cell r="C39">
-            <v>9.8617892941168233</v>
-          </cell>
-          <cell r="D39">
-            <v>15.979111851779237</v>
-          </cell>
-          <cell r="E39">
-            <v>1</v>
-          </cell>
-          <cell r="F39">
-            <v>3.7864285714285715</v>
-          </cell>
-          <cell r="G39">
-            <v>9.8585466760961804</v>
-          </cell>
-          <cell r="H39">
-            <v>10.5375</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Yuval" refreshedDate="43827.818414699075" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="147">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yuval" refreshedDate="43827.818414699075" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="147" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K148" sheet="combined"/>
   </cacheSource>
@@ -5194,7 +4742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -5656,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6356,7 +5904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
@@ -7666,7 +7214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CO148"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Experiments/Inner Product/Inner Product Dimension/combined.xlsx
+++ b/Experiments/Inner Product/Inner Product Dimension/combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Distributed Monitoring Thesis\Experiments\Inner Product\Inner Product Dimension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F5F9B-D9A6-41E0-A33F-A1B49704A7E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802265CF-393E-436B-AF6C-613D44247206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1290,6 +1290,37 @@
           <c:yVal>
             <c:numRef>
               <c:f>Sheet2!$D$27:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30.594107309425826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.7024715695458674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5829526610694693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9460030525478107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.490539003586386</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2057,10 +2088,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
@@ -2069,11 +2096,15 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="9"/>
+        <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="10"/>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -4742,7 +4773,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -5908,12 +5939,12 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
